--- a/L2-Ergebnisse-Normal.xlsx
+++ b/L2-Ergebnisse-Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4933C3F0-1C7C-4B50-8A34-89110A3E93AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089F63C-56E4-4CCF-AD7E-B0F605DC1D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Experiment</t>
   </si>
@@ -60,10 +60,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -428,7 +436,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N176" sqref="N176"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -455,6 +463,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -477,6 +497,9 @@
       </c>
       <c r="G2">
         <v>105</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
       </c>
       <c r="J2">
         <f>D2/C2</f>
@@ -513,6 +536,9 @@
       <c r="G3">
         <v>242</v>
       </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="0">D3/C3</f>
         <v>1</v>
@@ -548,6 +574,9 @@
       <c r="G4">
         <v>84</v>
       </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
       <c r="J4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -583,6 +612,9 @@
       <c r="G5">
         <v>200</v>
       </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
       <c r="J5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -618,6 +650,9 @@
       <c r="G6">
         <v>251</v>
       </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
       <c r="J6">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -653,6 +688,9 @@
       <c r="G7">
         <v>283</v>
       </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
       <c r="J7">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -688,6 +726,9 @@
       <c r="G8">
         <v>61</v>
       </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
       <c r="J8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -723,6 +764,9 @@
       <c r="G9">
         <v>128</v>
       </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -758,6 +802,9 @@
       <c r="G10">
         <v>198</v>
       </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -793,6 +840,9 @@
       <c r="G11">
         <v>75</v>
       </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
       <c r="J11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -828,6 +878,9 @@
       <c r="G12">
         <v>86</v>
       </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
       <c r="J12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -863,6 +916,9 @@
       <c r="G13">
         <v>91</v>
       </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
       <c r="J13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -898,6 +954,9 @@
       <c r="G14">
         <v>121</v>
       </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -933,6 +992,9 @@
       <c r="G15">
         <v>101</v>
       </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="J15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -968,6 +1030,9 @@
       <c r="G16">
         <v>120</v>
       </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1003,6 +1068,9 @@
       <c r="G17">
         <v>198</v>
       </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
       <c r="J17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1038,6 +1106,9 @@
       <c r="G18">
         <v>146</v>
       </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1073,6 +1144,9 @@
       <c r="G19">
         <v>122</v>
       </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
       <c r="J19">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1108,6 +1182,9 @@
       <c r="G20">
         <v>116</v>
       </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1143,6 +1220,9 @@
       <c r="G21">
         <v>188</v>
       </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
       <c r="J21">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1177,6 +1257,9 @@
       </c>
       <c r="G22">
         <v>211</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -1213,6 +1296,9 @@
       <c r="G23">
         <v>179</v>
       </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
       <c r="J23">
         <f t="shared" si="0"/>
         <v>1.1623376623376624</v>
@@ -1248,6 +1334,9 @@
       <c r="G24">
         <v>205</v>
       </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
       <c r="J24">
         <f t="shared" si="0"/>
         <v>1.5219512195121951</v>
@@ -1283,6 +1372,9 @@
       <c r="G25">
         <v>111</v>
       </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="J25">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1318,6 +1410,9 @@
       <c r="G26">
         <v>185</v>
       </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
       <c r="J26">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1353,6 +1448,9 @@
       <c r="G27">
         <v>130</v>
       </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
       <c r="J27">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1388,6 +1486,9 @@
       <c r="G28">
         <v>137</v>
       </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
       <c r="J28">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1423,6 +1524,9 @@
       <c r="G29">
         <v>165</v>
       </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
       <c r="J29">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1458,6 +1562,9 @@
       <c r="G30">
         <v>166</v>
       </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
       <c r="J30">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1493,6 +1600,9 @@
       <c r="G31">
         <v>158</v>
       </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
       <c r="J31">
         <f t="shared" si="0"/>
         <v>1.096551724137931</v>
@@ -1528,6 +1638,9 @@
       <c r="G32">
         <v>194</v>
       </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
       <c r="J32">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1563,6 +1676,9 @@
       <c r="G33">
         <v>133</v>
       </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
       <c r="J33">
         <f t="shared" si="0"/>
         <v>1.1052631578947369</v>
@@ -1598,6 +1714,9 @@
       <c r="G34">
         <v>146</v>
       </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
       <c r="J34">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1633,6 +1752,9 @@
       <c r="G35">
         <v>190</v>
       </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
       <c r="J35">
         <f t="shared" si="0"/>
         <v>1.1646341463414633</v>
@@ -1668,6 +1790,9 @@
       <c r="G36">
         <v>150</v>
       </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
       <c r="J36">
         <f t="shared" si="0"/>
         <v>1.26890756302521</v>
@@ -1703,6 +1828,9 @@
       <c r="G37">
         <v>204</v>
       </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
       <c r="J37">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1738,6 +1866,9 @@
       <c r="G38">
         <v>150</v>
       </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
       <c r="J38">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1773,6 +1904,9 @@
       <c r="G39">
         <v>141</v>
       </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
       <c r="J39">
         <f t="shared" si="0"/>
         <v>1.3115942028985508</v>
@@ -1808,6 +1942,9 @@
       <c r="G40">
         <v>160</v>
       </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
       <c r="J40">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1843,6 +1980,9 @@
       <c r="G41">
         <v>316</v>
       </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
       <c r="J41">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1877,6 +2017,9 @@
       </c>
       <c r="G42">
         <v>353</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -1913,6 +2056,9 @@
       <c r="G43">
         <v>256</v>
       </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
       <c r="J43">
         <f t="shared" si="0"/>
         <v>1.4375</v>
@@ -1948,6 +2094,9 @@
       <c r="G44">
         <v>163</v>
       </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
       <c r="J44">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1983,6 +2132,9 @@
       <c r="G45">
         <v>201</v>
       </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
       <c r="J45">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2018,6 +2170,9 @@
       <c r="G46">
         <v>204</v>
       </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
       <c r="J46">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2053,6 +2208,9 @@
       <c r="G47">
         <v>257</v>
       </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
       <c r="J47">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2088,6 +2246,9 @@
       <c r="G48">
         <v>257</v>
       </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
       <c r="J48">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2123,6 +2284,9 @@
       <c r="G49">
         <v>293</v>
       </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
       <c r="J49">
         <f t="shared" si="0"/>
         <v>1.0046511627906978</v>
@@ -2158,6 +2322,9 @@
       <c r="G50">
         <v>262</v>
       </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
       <c r="J50">
         <f t="shared" si="0"/>
         <v>1.1111111111111112</v>
@@ -2193,6 +2360,9 @@
       <c r="G51">
         <v>230</v>
       </c>
+      <c r="I51">
+        <v>5</v>
+      </c>
       <c r="J51">
         <f t="shared" si="0"/>
         <v>1.1290322580645162</v>
@@ -2228,6 +2398,9 @@
       <c r="G52">
         <v>239</v>
       </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
       <c r="J52">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2263,6 +2436,9 @@
       <c r="G53">
         <v>235</v>
       </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
       <c r="J53">
         <f t="shared" si="0"/>
         <v>1.0755555555555556</v>
@@ -2298,6 +2474,9 @@
       <c r="G54">
         <v>165</v>
       </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
       <c r="J54">
         <f t="shared" si="0"/>
         <v>1.3658536585365855</v>
@@ -2333,6 +2512,9 @@
       <c r="G55">
         <v>183</v>
       </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
       <c r="J55">
         <f t="shared" si="0"/>
         <v>1.2922077922077921</v>
@@ -2368,6 +2550,9 @@
       <c r="G56">
         <v>149</v>
       </c>
+      <c r="I56">
+        <v>5</v>
+      </c>
       <c r="J56">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2403,6 +2588,9 @@
       <c r="G57">
         <v>160</v>
       </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
       <c r="J57">
         <f t="shared" si="0"/>
         <v>1.5384615384615385</v>
@@ -2438,6 +2626,9 @@
       <c r="G58">
         <v>354</v>
       </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
       <c r="J58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2473,6 +2664,9 @@
       <c r="G59">
         <v>133</v>
       </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
       <c r="J59">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2508,6 +2702,9 @@
       <c r="G60">
         <v>234</v>
       </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
       <c r="J60">
         <f t="shared" si="0"/>
         <v>1.3655913978494623</v>
@@ -2543,6 +2740,9 @@
       <c r="G61">
         <v>254</v>
       </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
       <c r="J61">
         <f t="shared" si="0"/>
         <v>1.036734693877551</v>
@@ -2578,6 +2778,9 @@
       <c r="G62">
         <v>277</v>
       </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
       <c r="J62">
         <f t="shared" si="0"/>
         <v>1.5260416666666667</v>
@@ -2613,6 +2816,9 @@
       <c r="G63">
         <v>207</v>
       </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
       <c r="J63">
         <f t="shared" si="0"/>
         <v>1.29375</v>
@@ -2648,6 +2854,9 @@
       <c r="G64">
         <v>283</v>
       </c>
+      <c r="I64">
+        <v>6</v>
+      </c>
       <c r="J64">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2683,6 +2892,9 @@
       <c r="G65">
         <v>207</v>
       </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
       <c r="J65">
         <f t="shared" si="0"/>
         <v>1.2268041237113403</v>
@@ -2718,6 +2930,9 @@
       <c r="G66">
         <v>260</v>
       </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
       <c r="J66">
         <f t="shared" si="0"/>
         <v>1.0612244897959184</v>
@@ -2753,6 +2968,9 @@
       <c r="G67">
         <v>266</v>
       </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" si="3">D67/C67</f>
         <v>1</v>
@@ -2788,6 +3006,9 @@
       <c r="G68">
         <v>175</v>
       </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
       <c r="J68">
         <f t="shared" si="3"/>
         <v>1.0174418604651163</v>
@@ -2823,6 +3044,9 @@
       <c r="G69">
         <v>288</v>
       </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
       <c r="J69">
         <f t="shared" si="3"/>
         <v>1.0837004405286343</v>
@@ -2858,6 +3082,9 @@
       <c r="G70">
         <v>181</v>
       </c>
+      <c r="I70">
+        <v>6</v>
+      </c>
       <c r="J70">
         <f t="shared" si="3"/>
         <v>1.3524590163934427</v>
@@ -2893,6 +3120,9 @@
       <c r="G71">
         <v>227</v>
       </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
       <c r="J71">
         <f t="shared" si="3"/>
         <v>1.1886792452830188</v>
@@ -2928,6 +3158,9 @@
       <c r="G72">
         <v>251</v>
       </c>
+      <c r="I72">
+        <v>6</v>
+      </c>
       <c r="J72">
         <f t="shared" si="3"/>
         <v>1.270935960591133</v>
@@ -2963,6 +3196,9 @@
       <c r="G73">
         <v>297</v>
       </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
       <c r="J73">
         <f t="shared" si="3"/>
         <v>1.0470085470085471</v>
@@ -2998,6 +3234,9 @@
       <c r="G74">
         <v>217</v>
       </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
       <c r="J74">
         <f t="shared" si="3"/>
         <v>1.111842105263158</v>
@@ -3033,6 +3272,9 @@
       <c r="G75">
         <v>209</v>
       </c>
+      <c r="I75">
+        <v>6</v>
+      </c>
       <c r="J75">
         <f t="shared" si="3"/>
         <v>1.203125</v>
@@ -3068,6 +3310,9 @@
       <c r="G76">
         <v>234</v>
       </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
       <c r="J76">
         <f t="shared" si="3"/>
         <v>1.1152073732718895</v>
@@ -3103,6 +3348,9 @@
       <c r="G77">
         <v>244</v>
       </c>
+      <c r="I77">
+        <v>6</v>
+      </c>
       <c r="J77">
         <f t="shared" si="3"/>
         <v>1.2413793103448276</v>
@@ -3138,6 +3386,9 @@
       <c r="G78">
         <v>231</v>
       </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
       <c r="J78">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3173,6 +3424,9 @@
       <c r="G79">
         <v>198</v>
       </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
       <c r="J79">
         <f t="shared" si="3"/>
         <v>1.1546961325966851</v>
@@ -3208,6 +3462,9 @@
       <c r="G80">
         <v>252</v>
       </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
       <c r="J80">
         <f t="shared" si="3"/>
         <v>1.0851063829787233</v>
@@ -3243,6 +3500,9 @@
       <c r="G81">
         <v>244</v>
       </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
       <c r="J81">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3278,6 +3538,9 @@
       <c r="G82">
         <v>145</v>
       </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
       <c r="J82">
         <f t="shared" si="3"/>
         <v>1.0984848484848484</v>
@@ -3313,6 +3576,9 @@
       <c r="G83">
         <v>251</v>
       </c>
+      <c r="I83">
+        <v>7</v>
+      </c>
       <c r="J83">
         <f t="shared" si="3"/>
         <v>1.3015873015873016</v>
@@ -3348,6 +3614,9 @@
       <c r="G84">
         <v>130</v>
       </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
       <c r="J84">
         <f t="shared" si="3"/>
         <v>1.1030927835051547</v>
@@ -3383,6 +3652,9 @@
       <c r="G85">
         <v>291</v>
       </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
       <c r="J85">
         <f t="shared" si="3"/>
         <v>1.3217821782178218</v>
@@ -3418,6 +3690,9 @@
       <c r="G86">
         <v>261</v>
       </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
       <c r="J86">
         <f t="shared" si="3"/>
         <v>1.17578125</v>
@@ -3453,6 +3728,9 @@
       <c r="G87">
         <v>409</v>
       </c>
+      <c r="I87">
+        <v>7</v>
+      </c>
       <c r="J87">
         <f t="shared" si="3"/>
         <v>1.0234375</v>
@@ -3488,6 +3766,9 @@
       <c r="G88">
         <v>300</v>
       </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
       <c r="J88">
         <f t="shared" si="3"/>
         <v>1.225609756097561</v>
@@ -3523,6 +3804,9 @@
       <c r="G89">
         <v>279</v>
       </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
       <c r="J89">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3558,6 +3842,9 @@
       <c r="G90">
         <v>181</v>
       </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
       <c r="J90">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -3593,6 +3880,9 @@
       <c r="G91">
         <v>152</v>
       </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
       <c r="J91">
         <f t="shared" si="3"/>
         <v>1.296875</v>
@@ -3628,6 +3918,9 @@
       <c r="G92">
         <v>306</v>
       </c>
+      <c r="I92">
+        <v>7</v>
+      </c>
       <c r="J92">
         <f t="shared" si="3"/>
         <v>1.1730769230769231</v>
@@ -3663,6 +3956,9 @@
       <c r="G93">
         <v>314</v>
       </c>
+      <c r="I93">
+        <v>7</v>
+      </c>
       <c r="J93">
         <f t="shared" si="3"/>
         <v>1.4239999999999999</v>
@@ -3698,6 +3994,9 @@
       <c r="G94">
         <v>241</v>
       </c>
+      <c r="I94">
+        <v>7</v>
+      </c>
       <c r="J94">
         <f t="shared" si="3"/>
         <v>1.1258741258741258</v>
@@ -3733,6 +4032,9 @@
       <c r="G95">
         <v>183</v>
       </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
       <c r="J95">
         <f t="shared" si="3"/>
         <v>1.4093959731543624</v>
@@ -3768,6 +4070,9 @@
       <c r="G96">
         <v>162</v>
       </c>
+      <c r="I96">
+        <v>7</v>
+      </c>
       <c r="J96">
         <f t="shared" si="3"/>
         <v>1.1597222222222223</v>
@@ -3803,6 +4108,9 @@
       <c r="G97">
         <v>248</v>
       </c>
+      <c r="I97">
+        <v>7</v>
+      </c>
       <c r="J97">
         <f t="shared" si="3"/>
         <v>1.1776649746192893</v>
@@ -3838,6 +4146,9 @@
       <c r="G98">
         <v>251</v>
       </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
       <c r="J98">
         <f t="shared" si="3"/>
         <v>1.1518324607329844</v>
@@ -3873,6 +4184,9 @@
       <c r="G99">
         <v>167</v>
       </c>
+      <c r="I99">
+        <v>7</v>
+      </c>
       <c r="J99">
         <f t="shared" si="3"/>
         <v>1.4049586776859504</v>
@@ -3908,6 +4222,9 @@
       <c r="G100">
         <v>255</v>
       </c>
+      <c r="I100">
+        <v>7</v>
+      </c>
       <c r="J100">
         <f t="shared" si="3"/>
         <v>1.7193877551020409</v>
@@ -3943,6 +4260,9 @@
       <c r="G101">
         <v>158</v>
       </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
       <c r="J101">
         <f t="shared" si="3"/>
         <v>1.170940170940171</v>
@@ -3978,6 +4298,9 @@
       <c r="G102">
         <v>245</v>
       </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
       <c r="J102">
         <f t="shared" si="3"/>
         <v>1.4961832061068703</v>
@@ -4013,6 +4336,9 @@
       <c r="G103">
         <v>269</v>
       </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
       <c r="J103">
         <f t="shared" si="3"/>
         <v>1.1604938271604939</v>
@@ -4048,6 +4374,9 @@
       <c r="G104">
         <v>236</v>
       </c>
+      <c r="I104">
+        <v>8</v>
+      </c>
       <c r="J104">
         <f t="shared" si="3"/>
         <v>1.1348837209302325</v>
@@ -4083,6 +4412,9 @@
       <c r="G105">
         <v>296</v>
       </c>
+      <c r="I105">
+        <v>8</v>
+      </c>
       <c r="J105">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4118,6 +4450,9 @@
       <c r="G106">
         <v>422</v>
       </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
       <c r="J106">
         <f t="shared" si="3"/>
         <v>1.4549356223175967</v>
@@ -4153,6 +4488,9 @@
       <c r="G107">
         <v>226</v>
       </c>
+      <c r="I107">
+        <v>8</v>
+      </c>
       <c r="J107">
         <f t="shared" si="3"/>
         <v>1.4293478260869565</v>
@@ -4188,6 +4526,9 @@
       <c r="G108">
         <v>190</v>
       </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
       <c r="J108">
         <f t="shared" si="3"/>
         <v>1.2210526315789474</v>
@@ -4223,6 +4564,9 @@
       <c r="G109">
         <v>305</v>
       </c>
+      <c r="I109">
+        <v>8</v>
+      </c>
       <c r="J109">
         <f t="shared" si="3"/>
         <v>1.0398406374501992</v>
@@ -4258,6 +4602,9 @@
       <c r="G110">
         <v>304</v>
       </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
       <c r="J110">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4293,6 +4640,9 @@
       <c r="G111">
         <v>277</v>
       </c>
+      <c r="I111">
+        <v>8</v>
+      </c>
       <c r="J111">
         <f t="shared" si="3"/>
         <v>1.103321033210332</v>
@@ -4328,6 +4678,9 @@
       <c r="G112">
         <v>154</v>
       </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
       <c r="J112">
         <f t="shared" si="3"/>
         <v>1.1755725190839694</v>
@@ -4363,6 +4716,9 @@
       <c r="G113">
         <v>287</v>
       </c>
+      <c r="I113">
+        <v>8</v>
+      </c>
       <c r="J113">
         <f t="shared" si="3"/>
         <v>1.5682819383259912</v>
@@ -4398,6 +4754,9 @@
       <c r="G114">
         <v>236</v>
       </c>
+      <c r="I114">
+        <v>8</v>
+      </c>
       <c r="J114">
         <f t="shared" si="3"/>
         <v>1.032</v>
@@ -4433,6 +4792,9 @@
       <c r="G115">
         <v>227</v>
       </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
       <c r="J115">
         <f t="shared" si="3"/>
         <v>1.2321428571428572</v>
@@ -4468,6 +4830,9 @@
       <c r="G116">
         <v>186</v>
       </c>
+      <c r="I116">
+        <v>8</v>
+      </c>
       <c r="J116">
         <f t="shared" si="3"/>
         <v>1.0122699386503067</v>
@@ -4503,6 +4868,9 @@
       <c r="G117">
         <v>170</v>
       </c>
+      <c r="I117">
+        <v>8</v>
+      </c>
       <c r="J117">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4538,6 +4906,9 @@
       <c r="G118">
         <v>267</v>
       </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
       <c r="J118">
         <f t="shared" si="3"/>
         <v>1.1382488479262673</v>
@@ -4573,6 +4944,9 @@
       <c r="G119">
         <v>171</v>
       </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
       <c r="J119">
         <f t="shared" si="3"/>
         <v>1.2426470588235294</v>
@@ -4608,6 +4982,9 @@
       <c r="G120">
         <v>128</v>
       </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
       <c r="J120">
         <f t="shared" si="3"/>
         <v>1.292929292929293</v>
@@ -4643,6 +5020,9 @@
       <c r="G121">
         <v>167</v>
       </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
       <c r="J121">
         <f t="shared" si="3"/>
         <v>1.1836734693877551</v>
@@ -4678,6 +5058,9 @@
       <c r="G122">
         <v>289</v>
       </c>
+      <c r="I122">
+        <v>9</v>
+      </c>
       <c r="J122">
         <f t="shared" si="3"/>
         <v>1.5707762557077625</v>
@@ -4713,6 +5096,9 @@
       <c r="G123">
         <v>274</v>
       </c>
+      <c r="I123">
+        <v>9</v>
+      </c>
       <c r="J123">
         <f t="shared" si="3"/>
         <v>1.8313253012048192</v>
@@ -4748,6 +5134,9 @@
       <c r="G124">
         <v>192</v>
       </c>
+      <c r="I124">
+        <v>9</v>
+      </c>
       <c r="J124">
         <f t="shared" si="3"/>
         <v>1.1764705882352942</v>
@@ -4783,6 +5172,9 @@
       <c r="G125">
         <v>133</v>
       </c>
+      <c r="I125">
+        <v>9</v>
+      </c>
       <c r="J125">
         <f t="shared" si="3"/>
         <v>1.1832061068702291</v>
@@ -4818,6 +5210,9 @@
       <c r="G126">
         <v>246</v>
       </c>
+      <c r="I126">
+        <v>9</v>
+      </c>
       <c r="J126">
         <f t="shared" si="3"/>
         <v>1.4242424242424243</v>
@@ -4853,6 +5248,9 @@
       <c r="G127">
         <v>236</v>
       </c>
+      <c r="I127">
+        <v>9</v>
+      </c>
       <c r="J127">
         <f t="shared" si="3"/>
         <v>1.6962025316455696</v>
@@ -4888,6 +5286,9 @@
       <c r="G128">
         <v>302</v>
       </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
       <c r="J128">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -4923,6 +5324,9 @@
       <c r="G129">
         <v>219</v>
       </c>
+      <c r="I129">
+        <v>9</v>
+      </c>
       <c r="J129">
         <f t="shared" si="3"/>
         <v>1.3295454545454546</v>
@@ -4958,6 +5362,9 @@
       <c r="G130">
         <v>226</v>
       </c>
+      <c r="I130">
+        <v>9</v>
+      </c>
       <c r="J130">
         <f t="shared" si="3"/>
         <v>1.1092896174863387</v>
@@ -4993,6 +5400,9 @@
       <c r="G131">
         <v>287</v>
       </c>
+      <c r="I131">
+        <v>9</v>
+      </c>
       <c r="J131">
         <f t="shared" ref="J131:J181" si="6">D131/C131</f>
         <v>1.3714285714285714</v>
@@ -5028,6 +5438,9 @@
       <c r="G132">
         <v>342</v>
       </c>
+      <c r="I132">
+        <v>9</v>
+      </c>
       <c r="J132">
         <f t="shared" si="6"/>
         <v>1.4651162790697674</v>
@@ -5063,6 +5476,9 @@
       <c r="G133">
         <v>249</v>
       </c>
+      <c r="I133">
+        <v>9</v>
+      </c>
       <c r="J133">
         <f t="shared" si="6"/>
         <v>1.1296296296296295</v>
@@ -5098,6 +5514,9 @@
       <c r="G134">
         <v>318</v>
       </c>
+      <c r="I134">
+        <v>9</v>
+      </c>
       <c r="J134">
         <f t="shared" si="6"/>
         <v>1.2</v>
@@ -5133,6 +5552,9 @@
       <c r="G135">
         <v>269</v>
       </c>
+      <c r="I135">
+        <v>9</v>
+      </c>
       <c r="J135">
         <f t="shared" si="6"/>
         <v>1.3097826086956521</v>
@@ -5168,6 +5590,9 @@
       <c r="G136">
         <v>363</v>
       </c>
+      <c r="I136">
+        <v>9</v>
+      </c>
       <c r="J136">
         <f t="shared" si="6"/>
         <v>1.3718592964824121</v>
@@ -5203,6 +5628,9 @@
       <c r="G137">
         <v>328</v>
       </c>
+      <c r="I137">
+        <v>9</v>
+      </c>
       <c r="J137">
         <f t="shared" si="6"/>
         <v>1.3605769230769231</v>
@@ -5238,6 +5666,9 @@
       <c r="G138">
         <v>384</v>
       </c>
+      <c r="I138">
+        <v>9</v>
+      </c>
       <c r="J138">
         <f t="shared" si="6"/>
         <v>1.0042735042735043</v>
@@ -5273,6 +5704,9 @@
       <c r="G139">
         <v>246</v>
       </c>
+      <c r="I139">
+        <v>9</v>
+      </c>
       <c r="J139">
         <f t="shared" si="6"/>
         <v>1.5064935064935066</v>
@@ -5308,6 +5742,9 @@
       <c r="G140">
         <v>214</v>
       </c>
+      <c r="I140">
+        <v>9</v>
+      </c>
       <c r="J140">
         <f t="shared" si="6"/>
         <v>1.6424581005586592</v>
@@ -5343,6 +5780,9 @@
       <c r="G141">
         <v>290</v>
       </c>
+      <c r="I141">
+        <v>9</v>
+      </c>
       <c r="J141">
         <f t="shared" si="6"/>
         <v>1.9900990099009901</v>
@@ -5378,6 +5818,9 @@
       <c r="G142">
         <v>238</v>
       </c>
+      <c r="I142">
+        <v>10</v>
+      </c>
       <c r="J142">
         <f t="shared" si="6"/>
         <v>1.2820512820512822</v>
@@ -5413,6 +5856,9 @@
       <c r="G143">
         <v>309</v>
       </c>
+      <c r="I143">
+        <v>10</v>
+      </c>
       <c r="J143">
         <f t="shared" si="6"/>
         <v>1.6442307692307692</v>
@@ -5448,6 +5894,9 @@
       <c r="G144">
         <v>294</v>
       </c>
+      <c r="I144">
+        <v>10</v>
+      </c>
       <c r="J144">
         <f t="shared" si="6"/>
         <v>1.3006535947712419</v>
@@ -5483,6 +5932,9 @@
       <c r="G145">
         <v>251</v>
       </c>
+      <c r="I145">
+        <v>10</v>
+      </c>
       <c r="J145">
         <f t="shared" si="6"/>
         <v>1.3625</v>
@@ -5518,6 +5970,9 @@
       <c r="G146">
         <v>285</v>
       </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
       <c r="J146">
         <f t="shared" si="6"/>
         <v>1.2303921568627452</v>
@@ -5553,6 +6008,9 @@
       <c r="G147">
         <v>275</v>
       </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
       <c r="J147">
         <f t="shared" si="6"/>
         <v>1.826086956521739</v>
@@ -5588,6 +6046,9 @@
       <c r="G148">
         <v>349</v>
       </c>
+      <c r="I148">
+        <v>10</v>
+      </c>
       <c r="J148">
         <f t="shared" si="6"/>
         <v>1.421875</v>
@@ -5623,6 +6084,9 @@
       <c r="G149">
         <v>312</v>
       </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
       <c r="J149">
         <f t="shared" si="6"/>
         <v>1.4385026737967914</v>
@@ -5658,6 +6122,9 @@
       <c r="G150">
         <v>245</v>
       </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
       <c r="J150">
         <f t="shared" si="6"/>
         <v>1.3023255813953489</v>
@@ -5693,6 +6160,9 @@
       <c r="G151">
         <v>394</v>
       </c>
+      <c r="I151">
+        <v>10</v>
+      </c>
       <c r="J151">
         <f t="shared" si="6"/>
         <v>1.2830882352941178</v>
@@ -5728,6 +6198,9 @@
       <c r="G152">
         <v>315</v>
       </c>
+      <c r="I152">
+        <v>10</v>
+      </c>
       <c r="J152">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5763,6 +6236,9 @@
       <c r="G153">
         <v>349</v>
       </c>
+      <c r="I153">
+        <v>10</v>
+      </c>
       <c r="J153">
         <f t="shared" si="6"/>
         <v>1.2974137931034482</v>
@@ -5798,6 +6274,9 @@
       <c r="G154">
         <v>261</v>
       </c>
+      <c r="I154">
+        <v>10</v>
+      </c>
       <c r="J154">
         <f t="shared" si="6"/>
         <v>1.1045751633986929</v>
@@ -5833,6 +6312,9 @@
       <c r="G155">
         <v>292</v>
       </c>
+      <c r="I155">
+        <v>10</v>
+      </c>
       <c r="J155">
         <f t="shared" si="6"/>
         <v>1.0700636942675159</v>
@@ -5868,6 +6350,9 @@
       <c r="G156">
         <v>297</v>
       </c>
+      <c r="I156">
+        <v>10</v>
+      </c>
       <c r="J156">
         <f t="shared" si="6"/>
         <v>1.0512820512820513</v>
@@ -5903,6 +6388,9 @@
       <c r="G157">
         <v>291</v>
       </c>
+      <c r="I157">
+        <v>10</v>
+      </c>
       <c r="J157">
         <f t="shared" si="6"/>
         <v>1.1412429378531073</v>
@@ -5938,6 +6426,9 @@
       <c r="G158">
         <v>334</v>
       </c>
+      <c r="I158">
+        <v>10</v>
+      </c>
       <c r="J158">
         <f t="shared" si="6"/>
         <v>1.4009900990099009</v>
@@ -5973,6 +6464,9 @@
       <c r="G159">
         <v>215</v>
       </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
       <c r="J159">
         <f t="shared" si="6"/>
         <v>1.3522012578616351</v>
@@ -6008,6 +6502,9 @@
       <c r="G160">
         <v>298</v>
       </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
       <c r="J160">
         <f t="shared" si="6"/>
         <v>1.1566265060240963</v>
@@ -6043,6 +6540,9 @@
       <c r="G161">
         <v>227</v>
       </c>
+      <c r="I161">
+        <v>10</v>
+      </c>
       <c r="J161">
         <f t="shared" si="6"/>
         <v>1.1559139784946237</v>
@@ -6078,6 +6578,9 @@
       <c r="G162">
         <v>212</v>
       </c>
+      <c r="I162">
+        <v>11</v>
+      </c>
       <c r="J162">
         <f t="shared" si="6"/>
         <v>1.8031496062992125</v>
@@ -6113,6 +6616,9 @@
       <c r="G163">
         <v>246</v>
       </c>
+      <c r="I163">
+        <v>11</v>
+      </c>
       <c r="J163">
         <f t="shared" si="6"/>
         <v>1.1517241379310346</v>
@@ -6148,6 +6654,9 @@
       <c r="G164">
         <v>296</v>
       </c>
+      <c r="I164">
+        <v>11</v>
+      </c>
       <c r="J164">
         <f t="shared" si="6"/>
         <v>1.3290322580645162</v>
@@ -6183,6 +6692,9 @@
       <c r="G165">
         <v>199</v>
       </c>
+      <c r="I165">
+        <v>11</v>
+      </c>
       <c r="J165">
         <f t="shared" si="6"/>
         <v>1.474025974025974</v>
@@ -6218,6 +6730,9 @@
       <c r="G166">
         <v>350</v>
       </c>
+      <c r="I166">
+        <v>11</v>
+      </c>
       <c r="J166">
         <f t="shared" si="6"/>
         <v>1.1599999999999999</v>
@@ -6253,6 +6768,9 @@
       <c r="G167">
         <v>226</v>
       </c>
+      <c r="I167">
+        <v>11</v>
+      </c>
       <c r="J167">
         <f t="shared" si="6"/>
         <v>1.2</v>
@@ -6288,6 +6806,9 @@
       <c r="G168">
         <v>251</v>
       </c>
+      <c r="I168">
+        <v>11</v>
+      </c>
       <c r="J168">
         <f t="shared" si="6"/>
         <v>1.2413793103448276</v>
@@ -6323,6 +6844,9 @@
       <c r="G169">
         <v>235</v>
       </c>
+      <c r="I169">
+        <v>11</v>
+      </c>
       <c r="J169">
         <f t="shared" si="6"/>
         <v>1.0855263157894737</v>
@@ -6358,6 +6882,9 @@
       <c r="G170">
         <v>326</v>
       </c>
+      <c r="I170">
+        <v>11</v>
+      </c>
       <c r="J170">
         <f t="shared" si="6"/>
         <v>1.2117647058823529</v>
@@ -6393,6 +6920,9 @@
       <c r="G171">
         <v>284</v>
       </c>
+      <c r="I171">
+        <v>11</v>
+      </c>
       <c r="J171">
         <f t="shared" si="6"/>
         <v>1.5648854961832062</v>
@@ -6428,6 +6958,9 @@
       <c r="G172">
         <v>189</v>
       </c>
+      <c r="I172">
+        <v>11</v>
+      </c>
       <c r="J172">
         <f t="shared" si="6"/>
         <v>1.3287671232876712</v>
@@ -6463,6 +6996,9 @@
       <c r="G173">
         <v>290</v>
       </c>
+      <c r="I173">
+        <v>11</v>
+      </c>
       <c r="J173">
         <f t="shared" si="6"/>
         <v>1.2</v>
@@ -6498,6 +7034,9 @@
       <c r="G174">
         <v>272</v>
       </c>
+      <c r="I174">
+        <v>11</v>
+      </c>
       <c r="J174">
         <f t="shared" si="6"/>
         <v>1.2933333333333332</v>
@@ -6533,6 +7072,9 @@
       <c r="G175">
         <v>305</v>
       </c>
+      <c r="I175">
+        <v>11</v>
+      </c>
       <c r="J175">
         <f t="shared" si="6"/>
         <v>1.0933333333333333</v>
@@ -6568,6 +7110,9 @@
       <c r="G176">
         <v>332</v>
       </c>
+      <c r="I176">
+        <v>11</v>
+      </c>
       <c r="J176">
         <f t="shared" si="6"/>
         <v>1.4587628865979381</v>
@@ -6603,6 +7148,9 @@
       <c r="G177">
         <v>282</v>
       </c>
+      <c r="I177">
+        <v>11</v>
+      </c>
       <c r="J177">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6638,6 +7186,9 @@
       <c r="G178">
         <v>312</v>
       </c>
+      <c r="I178">
+        <v>11</v>
+      </c>
       <c r="J178">
         <f t="shared" si="6"/>
         <v>1.6776315789473684</v>
@@ -6673,6 +7224,9 @@
       <c r="G179">
         <v>187</v>
       </c>
+      <c r="I179">
+        <v>11</v>
+      </c>
       <c r="J179">
         <f t="shared" si="6"/>
         <v>1.3953488372093024</v>
@@ -6708,6 +7262,9 @@
       <c r="G180">
         <v>373</v>
       </c>
+      <c r="I180">
+        <v>11</v>
+      </c>
       <c r="J180">
         <f t="shared" si="6"/>
         <v>1.278688524590164</v>
@@ -6742,6 +7299,9 @@
       </c>
       <c r="G181">
         <v>292</v>
+      </c>
+      <c r="I181">
+        <v>11</v>
       </c>
       <c r="J181">
         <f t="shared" si="6"/>

--- a/L2-Ergebnisse-Normal.xlsx
+++ b/L2-Ergebnisse-Normal.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089F63C-56E4-4CCF-AD7E-B0F605DC1D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FA938-44A2-41B7-B8E3-7C57A675AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,6 +130,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Verglich FTP-Algorithmen in L2 - Normaldaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in L2 - Normaldaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{88A6B39C-4DE7-4249-8C6D-E5D452DE3260}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D9EA7611-603B-48C2-8991-05F2ABA50452}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{196EB5E6-CFEB-4F76-9BF3-24C358DC525E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BB2B3E-5FBA-7827-F716-D6006EB68793}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3584575" y="676275"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +1284,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L1" activeCellId="3" sqref="I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7318,5 +8166,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/L2-Ergebnisse-Normal.xlsx
+++ b/L2-Ergebnisse-Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7E18F4-CDA0-4873-9BF9-77CADE24FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6659C08-2D5C-4B55-9104-5654C12B1CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -68,15 +61,40 @@
   <si>
     <t>greedy</t>
   </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -877,16 +896,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -922,7 +941,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4181475" y="835025"/>
+              <a:off x="98425" y="701675"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1273,15 +1292,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M229" sqref="M229"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1331,23 @@
       <c r="K1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1347,8 +1381,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1382,8 +1431,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.1421217930867487</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.618421052631579</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>3.764194013021583E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1417,8 +1481,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.1018091001148242</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.5176470588235293</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>2.5670154659922315E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1452,8 +1531,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.1759187118830214</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.6225165562913908</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>3.4085540047914323E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1487,8 +1582,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.1826020771686143</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>1.6770186335403727</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>3.0054248408479294E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1522,8 +1633,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.260268955939976</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>1.8292682926829269</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>3.882406677045442E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,8 +1684,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.2591981818829692</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>1.7741935483870968</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>4.1772738878043586E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1592,8 +1735,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.3153937238773443</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>2.0392156862745097</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>4.5438606050649588E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1627,8 +1786,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.285942257110251</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>2.0451612903225804</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>4.751437993191248E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1663,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1698,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1732,8 +1907,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1767,8 +1972,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>8.7864131294191933E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>6.2310528153917055E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1802,8 +2037,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0238270138894898</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.3974358974358974</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>4.6625771880499725E-3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0238270138894898</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.3974358974358974</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>4.6625771880499725E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1837,8 +2102,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1770436058647984</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>1.8367346938775511</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>5.4027822277342236E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.280409678795813</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>1.8732394366197183</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>6.3182303217324862E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1872,8 +2167,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.3237402855830529</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>1.6225165562913908</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>2.9221898598553727E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.3360894125686444</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>2.1216216216216215</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>6.8195194852292473E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1907,8 +2234,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.2027613299347306</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>2.1216216216216215</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>7.3246862640756638E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2563943325704987</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>2.1216216216216215</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>7.0805125522443349E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1942,8 +2301,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2725706843834101</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>4.2436463196090859E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2531114395979979</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>3.7265008823192031E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1977,8 +2368,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3059160816896012</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>1.9423076923076923</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>5.2932376996609513E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.4012578051470723</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>1.9393939393939394</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>5.6662069652412175E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2012,8 +2435,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.5040894086791727</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>2.2071005917159763</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>8.7864131294191933E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.6431988127137505</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>8.6355755446341081E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2047,8 +2502,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.6148472215730312</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>2.4869565217391303</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>7.0825489022017088E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.6846983863659537</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>2.2601626016260163</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>7.3958722176380817E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2083,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2118,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2153,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2188,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2223,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2258,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2293,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2328,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2363,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3611,15 +4098,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1.4866666666666666</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1</v>
       </c>
     </row>
@@ -3646,15 +4133,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2044198895027625</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0552486187845305</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0552486187845305</v>
       </c>
     </row>
@@ -3681,15 +4168,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3716,15 +4203,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4241071428571428</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.15625</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.15625</v>
       </c>
     </row>
@@ -3751,15 +4238,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3786,15 +4273,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.618421052631579</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3821,15 +4308,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1518324607329844</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.036649214659686</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.036649214659686</v>
       </c>
     </row>
@@ -3856,15 +4343,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3891,15 +4378,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3926,15 +4413,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.29</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3961,15 +4448,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3996,15 +4483,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2578125</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4031,15 +4518,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1649484536082475</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4066,15 +4553,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.43</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4101,15 +4588,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3974358974358974</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3974358974358974</v>
       </c>
     </row>
@@ -4136,15 +4623,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5759493670886076</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4171,15 +4658,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4206,15 +4693,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4241,15 +4728,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1804511278195489</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4276,15 +4763,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1818181818181819</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0363636363636364</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0363636363636364</v>
       </c>
     </row>
@@ -4311,15 +4798,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4346,15 +4833,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4381,15 +4868,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4416,15 +4903,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1363636363636365</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4451,15 +4938,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4692737430167597</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1620111731843576</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1620111731843576</v>
       </c>
     </row>
@@ -4486,15 +4973,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4521,15 +5008,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0225988700564972</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4556,15 +5043,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4591,15 +5078,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.134453781512605</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4626,15 +5113,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4661,15 +5148,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4696,15 +5183,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4731,15 +5218,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4766,15 +5253,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5985401459854014</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1386861313868613</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1386861313868613</v>
       </c>
     </row>
@@ -4801,15 +5288,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3023255813953489</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1317829457364341</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1317829457364341</v>
       </c>
     </row>
@@ -4836,15 +5323,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1090909090909091</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1090909090909091</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1090909090909091</v>
       </c>
     </row>
@@ -4871,15 +5358,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0408163265306123</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0306122448979591</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.010204081632653</v>
       </c>
     </row>
@@ -4906,15 +5393,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3622448979591837</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -4941,15 +5428,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4976,15 +5463,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0853658536585367</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0182926829268293</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0182926829268293</v>
       </c>
     </row>
@@ -5011,15 +5498,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8367346938775511</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8367346938775511</v>
       </c>
     </row>
@@ -5046,15 +5533,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5153374233128833</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2515337423312884</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4110429447852761</v>
       </c>
     </row>
@@ -5081,15 +5568,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0982142857142858</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0982142857142858</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2142857142857142</v>
       </c>
     </row>
@@ -5116,15 +5603,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1467181467181466</v>
       </c>
     </row>
@@ -5151,15 +5638,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5186,15 +5673,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0683453237410072</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0683453237410072</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5221,15 +5708,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0640394088669951</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0640394088669951</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0640394088669951</v>
       </c>
     </row>
@@ -5256,15 +5743,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2837837837837838</v>
       </c>
     </row>
@@ -5291,15 +5778,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5989847715736041</v>
       </c>
     </row>
@@ -5326,15 +5813,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8732394366197183</v>
       </c>
     </row>
@@ -5361,15 +5848,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5396,15 +5883,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2447552447552448</v>
       </c>
     </row>
@@ -5431,15 +5918,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1680327868852458</v>
       </c>
     </row>
@@ -5466,15 +5953,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1741935483870967</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1741935483870967</v>
       </c>
     </row>
@@ -5501,15 +5988,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2784810126582278</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2784810126582278</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2784810126582278</v>
       </c>
     </row>
@@ -5536,15 +6023,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5176470588235293</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2176470588235293</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4941176470588236</v>
       </c>
     </row>
@@ -5571,15 +6058,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5606,15 +6093,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5771428571428572</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5771428571428572</v>
       </c>
     </row>
@@ -5641,15 +6128,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4444444444444444</v>
       </c>
     </row>
@@ -5676,15 +6163,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1937500000000001</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1937500000000001</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1937500000000001</v>
       </c>
     </row>
@@ -5711,15 +6198,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5746,15 +6233,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5781,15 +6268,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7596899224806202</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7596899224806202</v>
       </c>
     </row>
@@ -5816,15 +6303,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4214876033057851</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4049586776859504</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3553719008264462</v>
       </c>
     </row>
@@ -5851,15 +6338,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>1</v>
       </c>
     </row>
@@ -5886,15 +6373,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1013215859030836</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1013215859030836</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0616740088105727</v>
       </c>
     </row>
@@ -5921,15 +6408,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2267441860465116</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2267441860465116</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1686046511627908</v>
       </c>
     </row>
@@ -5956,15 +6443,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3380281690140845</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.443661971830986</v>
       </c>
     </row>
@@ -5991,15 +6478,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1447368421052631</v>
       </c>
     </row>
@@ -6026,15 +6513,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.515625</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.515625</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.515625</v>
       </c>
     </row>
@@ -6061,15 +6548,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1311475409836065</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1311475409836065</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1311475409836065</v>
       </c>
     </row>
@@ -6096,15 +6583,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5911602209944751</v>
       </c>
     </row>
@@ -6131,15 +6618,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3649289099526067</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0236966824644549</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2796208530805686</v>
       </c>
     </row>
@@ -6166,15 +6653,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3591549295774648</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3591549295774648</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5070422535211268</v>
       </c>
     </row>
@@ -6201,15 +6688,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6236,15 +6723,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4903846153846154</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4903846153846154</v>
       </c>
     </row>
@@ -6271,15 +6758,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1479591836734695</v>
       </c>
     </row>
@@ -6306,15 +6793,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.086021505376344</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.086021505376344</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.086021505376344</v>
       </c>
     </row>
@@ -6341,15 +6828,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5151515151515151</v>
       </c>
     </row>
@@ -6376,15 +6863,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7478260869565216</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.817391304347826</v>
       </c>
     </row>
@@ -6411,15 +6898,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1935483870967742</v>
       </c>
     </row>
@@ -6446,15 +6933,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4360465116279071</v>
       </c>
     </row>
@@ -6481,15 +6968,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2040816326530612</v>
       </c>
     </row>
@@ -6516,15 +7003,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6115107913669064</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6115107913669064</v>
       </c>
     </row>
@@ -6551,15 +7038,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2758620689655173</v>
       </c>
     </row>
@@ -6586,15 +7073,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2115384615384615</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1009615384615385</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1009615384615385</v>
       </c>
     </row>
@@ -6621,15 +7108,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1882352941176471</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1882352941176471</v>
       </c>
     </row>
@@ -6656,15 +7143,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1868131868131868</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.401098901098901</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.401098901098901</v>
       </c>
     </row>
@@ -6691,15 +7178,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1834319526627219</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3431952662721893</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3431952662721893</v>
       </c>
     </row>
@@ -6726,15 +7213,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5591397849462365</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.403225806451613</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.403225806451613</v>
       </c>
     </row>
@@ -6761,15 +7248,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6796,15 +7283,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.152542372881356</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2655367231638419</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2429378531073447</v>
       </c>
     </row>
@@ -6831,15 +7318,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4090909090909092</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4090909090909092</v>
       </c>
     </row>
@@ -6866,15 +7353,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6901,15 +7388,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6936,15 +7423,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1568627450980393</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7549019607843137</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7549019607843137</v>
       </c>
     </row>
@@ -6971,15 +7458,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1363636363636365</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0568181818181819</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0568181818181819</v>
       </c>
     </row>
@@ -7006,15 +7493,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2378048780487805</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3109756097560976</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3109756097560976</v>
       </c>
     </row>
@@ -7041,15 +7528,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0583333333333333</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1208333333333333</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1208333333333333</v>
       </c>
     </row>
@@ -7076,15 +7563,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0365853658536586</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4146341463414633</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4146341463414633</v>
       </c>
     </row>
@@ -7111,15 +7598,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3656716417910448</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1194029850746268</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1194029850746268</v>
       </c>
     </row>
@@ -7146,15 +7633,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0051546391752577</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3814432989690721</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3814432989690721</v>
       </c>
     </row>
@@ -7181,15 +7668,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0981595092024541</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1717791411042944</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1717791411042944</v>
       </c>
     </row>
@@ -7216,15 +7703,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4541062801932367</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4541062801932367</v>
       </c>
     </row>
@@ -7251,15 +7738,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2066115702479339</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.384297520661157</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3264462809917354</v>
       </c>
     </row>
@@ -7286,15 +7773,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2754491017964071</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2814371257485031</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2814371257485031</v>
       </c>
     </row>
@@ -7321,15 +7808,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1530054644808743</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1530054644808743</v>
       </c>
     </row>
@@ -7356,15 +7843,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1359223300970873</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.203883495145631</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4077669902912622</v>
       </c>
     </row>
@@ -7391,15 +7878,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4049079754601228</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2515337423312884</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2760736196319018</v>
       </c>
     </row>
@@ -7426,15 +7913,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5037037037037038</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0518518518518518</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0518518518518518</v>
       </c>
     </row>
@@ -7461,15 +7948,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2229299363057324</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4713375796178343</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4713375796178343</v>
       </c>
     </row>
@@ -7496,15 +7983,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0308641975308641</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0308641975308641</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0308641975308641</v>
       </c>
     </row>
@@ -7531,15 +8018,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0337837837837838</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1216216216216215</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1216216216216215</v>
       </c>
     </row>
@@ -7566,15 +8053,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7109375</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7109375</v>
       </c>
     </row>
@@ -7601,15 +8088,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8129496402877698</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8129496402877698</v>
       </c>
     </row>
@@ -7636,15 +8123,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0765306122448979</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4081632653061225</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4081632653061225</v>
       </c>
     </row>
@@ -7671,15 +8158,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1990291262135921</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1990291262135921</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1990291262135921</v>
       </c>
     </row>
@@ -7706,15 +8193,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5098039215686274</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2794117647058822</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4166666666666667</v>
       </c>
     </row>
@@ -7741,15 +8228,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4608695652173913</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6869565217391305</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6869565217391305</v>
       </c>
     </row>
@@ -7776,15 +8263,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7222222222222223</v>
       </c>
     </row>
@@ -7811,15 +8298,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2359550561797752</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.146067415730337</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2078651685393258</v>
       </c>
     </row>
@@ -7846,15 +8333,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7881,15 +8368,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7916,15 +8403,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.108910891089109</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.108910891089109</v>
       </c>
     </row>
@@ -7951,15 +8438,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4133333333333333</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4133333333333333</v>
       </c>
     </row>
@@ -7986,15 +8473,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2056737588652482</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0921985815602837</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1702127659574468</v>
       </c>
     </row>
@@ -8021,15 +8508,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.103448275862069</v>
       </c>
     </row>
@@ -8056,15 +8543,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.286624203821656</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7707006369426752</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7707006369426752</v>
       </c>
     </row>
@@ -8091,15 +8578,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.3248945147679325</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.3248945147679325</v>
       </c>
     </row>
@@ -8126,15 +8613,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2095238095238094</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0809523809523809</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0809523809523809</v>
       </c>
     </row>
@@ -8161,15 +8648,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4873417721518987</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4873417721518987</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4873417721518987</v>
       </c>
     </row>
@@ -8196,15 +8683,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6225165562913908</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3708609271523178</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3708609271523178</v>
       </c>
     </row>
@@ -8231,15 +8718,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1735537190082646</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.9917355371900827</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.9917355371900827</v>
       </c>
     </row>
@@ -8266,15 +8753,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5302491103202847</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2597864768683273</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3487544483985765</v>
       </c>
     </row>
@@ -8301,15 +8788,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0051020408163265</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4744897959183674</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4744897959183674</v>
       </c>
     </row>
@@ -8336,15 +8823,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3722222222222222</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4333333333333333</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -8371,15 +8858,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.161764705882353</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0661764705882353</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0661764705882353</v>
       </c>
     </row>
@@ -8406,15 +8893,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1959183673469387</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3224489795918368</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3224489795918368</v>
       </c>
     </row>
@@ -8441,15 +8928,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1016949152542372</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4322033898305084</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.9322033898305084</v>
       </c>
     </row>
@@ -8476,15 +8963,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1297709923664123</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1221374045801527</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1221374045801527</v>
       </c>
     </row>
@@ -8511,15 +8998,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.117117117117117</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2702702702702702</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1531531531531531</v>
       </c>
     </row>
@@ -8546,15 +9033,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3071428571428572</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2214285714285715</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2214285714285715</v>
       </c>
     </row>
@@ -8581,15 +9068,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2333333333333334</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.325</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.45</v>
       </c>
     </row>
@@ -8616,15 +9103,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0251046025104602</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1924686192468619</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1924686192468619</v>
       </c>
     </row>
@@ -8651,15 +9138,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1336633663366336</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3168316831683169</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3168316831683169</v>
       </c>
     </row>
@@ -8686,15 +9173,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3410404624277457</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6647398843930636</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3179190751445087</v>
       </c>
     </row>
@@ -8721,15 +9208,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1957671957671958</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1957671957671958</v>
       </c>
     </row>
@@ -8756,15 +9243,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1518987341772151</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.379746835443038</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.379746835443038</v>
       </c>
     </row>
@@ -8791,15 +9278,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3380281690140845</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2605633802816902</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2605633802816902</v>
       </c>
     </row>
@@ -8826,15 +9313,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6770186335403727</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4223602484472049</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4223602484472049</v>
       </c>
     </row>
@@ -8861,15 +9348,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2038216560509554</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2547770700636942</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2420382165605095</v>
       </c>
     </row>
@@ -8896,15 +9383,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1415929203539823</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3628318584070795</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3628318584070795</v>
       </c>
     </row>
@@ -8931,15 +9418,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5374149659863945</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -8966,15 +9453,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3841463414634145</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3353658536585367</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1036585365853659</v>
       </c>
     </row>
@@ -9001,15 +9488,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1508379888268156</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1955307262569832</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1843575418994414</v>
       </c>
     </row>
@@ -9036,15 +9523,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0076335877862594</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4198473282442747</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4961832061068703</v>
       </c>
     </row>
@@ -9071,15 +9558,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1104972375690607</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2099447513812154</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2651933701657458</v>
       </c>
     </row>
@@ -9106,15 +9593,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1553398058252426</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1553398058252426</v>
       </c>
     </row>
@@ -9141,15 +9628,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1443850267379678</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.106951871657754</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.106951871657754</v>
       </c>
     </row>
@@ -9176,15 +9663,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0520833333333333</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1197916666666667</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1197916666666667</v>
       </c>
     </row>
@@ -9211,15 +9698,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0552763819095476</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5829145728643217</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5829145728643217</v>
       </c>
     </row>
@@ -9246,15 +9733,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0333333333333334</v>
       </c>
     </row>
@@ -9281,15 +9768,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0801886792452831</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9316,15 +9803,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.04</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.04</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1714285714285715</v>
       </c>
     </row>
@@ -9351,15 +9838,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1508379888268156</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1508379888268156</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1508379888268156</v>
       </c>
     </row>
@@ -9386,15 +9873,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9421,15 +9908,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9456,15 +9943,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0625</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0416666666666667</v>
       </c>
     </row>
@@ -9491,15 +9978,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4416243654822336</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3908629441624365</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4060913705583757</v>
       </c>
     </row>
@@ -9526,15 +10013,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1157894736842104</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.8631578947368421</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7263157894736842</v>
       </c>
     </row>
@@ -9561,15 +10048,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3583333333333334</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3583333333333334</v>
       </c>
     </row>
@@ -9596,15 +10083,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1296296296296295</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0308641975308641</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0308641975308641</v>
       </c>
     </row>
@@ -9631,15 +10118,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9666,15 +10153,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3381642512077294</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2367149758454106</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.067632850241546</v>
       </c>
     </row>
@@ -9701,15 +10188,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1355932203389831</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.231638418079096</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.231638418079096</v>
       </c>
     </row>
@@ -9736,15 +10223,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4407894736842106</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
     </row>
@@ -9771,15 +10258,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.037037037037037</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1049382716049383</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1049382716049383</v>
       </c>
     </row>
@@ -9806,15 +10293,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -9841,15 +10328,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0485436893203883</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0970873786407767</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0970873786407767</v>
       </c>
     </row>
@@ -9876,15 +10363,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6441717791411044</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3803680981595092</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3803680981595092</v>
       </c>
     </row>
@@ -9911,15 +10398,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4328358208955223</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4328358208955223</v>
       </c>
     </row>
@@ -9946,15 +10433,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0621761658031088</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0621761658031088</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0621761658031088</v>
       </c>
     </row>
@@ -9981,15 +10468,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5658536585365854</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3804878048780487</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3804878048780487</v>
       </c>
     </row>
@@ -10016,15 +10503,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1417322834645669</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6929133858267718</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6929133858267718</v>
       </c>
     </row>
@@ -10051,15 +10538,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.033175355450237</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.033175355450237</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.033175355450237</v>
       </c>
     </row>
@@ -10086,15 +10573,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4225941422594142</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3472803347280335</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2050209205020921</v>
       </c>
     </row>
@@ -10121,15 +10608,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0857142857142856</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5214285714285714</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5214285714285714</v>
       </c>
     </row>
@@ -10156,15 +10643,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2760180995475112</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4796380090497738</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3031674208144797</v>
       </c>
     </row>
@@ -10191,15 +10678,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.484472049689441</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.484472049689441</v>
       </c>
     </row>
@@ -10226,15 +10713,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1578947368421053</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3918128654970761</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3918128654970761</v>
       </c>
     </row>
@@ -10261,15 +10748,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.264</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.76</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.76</v>
       </c>
     </row>
@@ -10296,15 +10783,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.006578947368421</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3026315789473684</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3486842105263157</v>
       </c>
     </row>
@@ -10331,15 +10818,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1.4743589743589745</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1.3076923076923077</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1.3076923076923077</v>
       </c>
     </row>
@@ -10366,15 +10853,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3557046979865772</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0671140939597314</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0671140939597314</v>
       </c>
     </row>
@@ -10401,15 +10888,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2781954887218046</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10436,15 +10923,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1986301369863013</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1575342465753424</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1575342465753424</v>
       </c>
     </row>
@@ -10471,15 +10958,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8292682926829269</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2601626016260163</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2601626016260163</v>
       </c>
     </row>
@@ -10506,15 +10993,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3901098901098901</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5164835164835164</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3736263736263736</v>
       </c>
     </row>
@@ -10541,15 +11028,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1884057971014492</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1884057971014492</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1884057971014492</v>
       </c>
     </row>
@@ -10576,15 +11063,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1288343558282208</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3496932515337423</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3496932515337423</v>
       </c>
     </row>
@@ -10611,15 +11098,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1801242236024845</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5093167701863355</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5093167701863355</v>
       </c>
     </row>
@@ -10646,15 +11133,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1862745098039216</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2549019607843137</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2549019607843137</v>
       </c>
     </row>
@@ -10681,15 +11168,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.135</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2350000000000001</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2350000000000001</v>
       </c>
     </row>
@@ -10716,15 +11203,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3653846153846154</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0384615384615385</v>
       </c>
     </row>
@@ -10751,15 +11238,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5287958115183247</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.162303664921466</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.162303664921466</v>
       </c>
     </row>
@@ -10786,15 +11273,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3650793650793651</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3650793650793651</v>
       </c>
     </row>
@@ -10821,15 +11308,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0753768844221105</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10856,15 +11343,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3695652173913044</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0652173913043479</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0652173913043479</v>
       </c>
     </row>
@@ -10891,15 +11378,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.217877094972067</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4134078212290502</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4134078212290502</v>
       </c>
     </row>
@@ -10926,15 +11413,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5365853658536586</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3536585365853659</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3536585365853659</v>
       </c>
     </row>
@@ -10961,15 +11448,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10996,15 +11483,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3563218390804597</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2413793103448276</v>
       </c>
     </row>
@@ -11031,15 +11518,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0238095238095237</v>
       </c>
     </row>
@@ -11066,15 +11553,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2403100775193798</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5968992248062015</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5968992248062015</v>
       </c>
     </row>
@@ -11101,15 +11588,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11136,15 +11623,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6350710900473933</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2132701421800949</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2132701421800949</v>
       </c>
     </row>
@@ -11171,15 +11658,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4227272727272726</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2136363636363636</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2136363636363636</v>
       </c>
     </row>
@@ -11206,15 +11693,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7857142857142858</v>
       </c>
     </row>
@@ -11241,15 +11728,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.112781954887218</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.112781954887218</v>
       </c>
     </row>
@@ -11276,15 +11763,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11311,15 +11798,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1655172413793105</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1103448275862069</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1103448275862069</v>
       </c>
     </row>
@@ -11346,15 +11833,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2818181818181817</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2363636363636363</v>
       </c>
     </row>
@@ -11381,15 +11868,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2617801047120418</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1047120418848169</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1047120418848169</v>
       </c>
     </row>
@@ -11416,15 +11903,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6805555555555556</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5694444444444444</v>
       </c>
     </row>
@@ -11451,15 +11938,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3850267379679144</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3262032085561497</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3262032085561497</v>
       </c>
     </row>
@@ -11486,15 +11973,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3088235294117647</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0147058823529411</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0147058823529411</v>
       </c>
     </row>
@@ -11521,15 +12008,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.35</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2124999999999999</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2124999999999999</v>
       </c>
     </row>
@@ -11556,15 +12043,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.404040404040404</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4494949494949494</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4494949494949494</v>
       </c>
     </row>
@@ -11591,15 +12078,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1293103448275863</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5603448275862069</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1594827586206897</v>
       </c>
     </row>
@@ -11626,15 +12113,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3542600896860986</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2869955156950672</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2869955156950672</v>
       </c>
     </row>
@@ -11661,15 +12148,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6971153846153846</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3221153846153846</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3221153846153846</v>
       </c>
     </row>
@@ -11696,15 +12183,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2516556291390728</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1125827814569536</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1125827814569536</v>
       </c>
     </row>
@@ -11731,15 +12218,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0858585858585859</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2676767676767677</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2676767676767677</v>
       </c>
     </row>
@@ -11766,15 +12253,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4516129032258065</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.10752688172043</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.10752688172043</v>
       </c>
     </row>
@@ -11801,15 +12288,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1722488038277512</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0717703349282297</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0717703349282297</v>
       </c>
     </row>
@@ -11836,15 +12323,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4475524475524475</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7902097902097902</v>
       </c>
     </row>
@@ -11871,15 +12358,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0681818181818181</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0681818181818181</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0681818181818181</v>
       </c>
     </row>
@@ -11906,15 +12393,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0483870967741935</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.032258064516129</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3172043010752688</v>
       </c>
     </row>
@@ -11941,15 +12428,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1793103448275861</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2206896551724138</v>
       </c>
     </row>
@@ -11976,15 +12463,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0793650793650793</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2910052910052909</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2116402116402116</v>
       </c>
     </row>
@@ -12011,15 +12498,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2587064676616915</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2736318407960199</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2935323383084578</v>
       </c>
     </row>
@@ -12046,15 +12533,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3815028901734103</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0635838150289016</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3410404624277457</v>
       </c>
     </row>
@@ -12081,15 +12568,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4779411764705883</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4779411764705883</v>
       </c>
     </row>
@@ -12116,15 +12603,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5956284153005464</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0765027322404372</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.360655737704918</v>
       </c>
     </row>
@@ -12151,15 +12638,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2538071065989849</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0355329949238579</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.233502538071066</v>
       </c>
     </row>
@@ -12186,15 +12673,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1948051948051948</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1363636363636365</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1363636363636365</v>
       </c>
     </row>
@@ -12221,15 +12708,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4973262032085561</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2085561497326203</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2085561497326203</v>
       </c>
     </row>
@@ -12256,15 +12743,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1807228915662651</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7831325301204819</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5963855421686748</v>
       </c>
     </row>
@@ -12291,15 +12778,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0253164556962024</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0253164556962024</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0253164556962024</v>
       </c>
     </row>
@@ -12326,15 +12813,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0751173708920188</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.408450704225352</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.267605633802817</v>
       </c>
     </row>
@@ -12361,15 +12848,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4786729857819905</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5687203791469195</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2701421800947867</v>
       </c>
     </row>
@@ -12396,15 +12883,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7250000000000001</v>
       </c>
     </row>
@@ -12431,15 +12918,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3886010362694301</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2694300518134716</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3471502590673574</v>
       </c>
     </row>
@@ -12466,15 +12953,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2245989304812834</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3689839572192513</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4331550802139037</v>
       </c>
     </row>
@@ -12501,15 +12988,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6929133858267718</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6929133858267718</v>
       </c>
     </row>
@@ -12536,15 +13023,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2282608695652173</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4293478260869565</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2228260869565217</v>
       </c>
     </row>
@@ -12571,15 +13058,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.6044776119402986</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1.6044776119402986</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.7611940298507462</v>
       </c>
     </row>
@@ -12606,15 +13093,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3076923076923077</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3076923076923077</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6384615384615384</v>
       </c>
     </row>
@@ -12641,15 +13128,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3448275862068966</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2471264367816093</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3390804597701149</v>
       </c>
     </row>
@@ -12676,15 +13163,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4684210526315788</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1526315789473685</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4684210526315788</v>
       </c>
     </row>
@@ -12711,15 +13198,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3632653061224489</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2938775510204081</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1510204081632653</v>
       </c>
     </row>
@@ -12746,15 +13233,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0264550264550265</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1957671957671958</v>
       </c>
     </row>
@@ -12781,15 +13268,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2834224598930482</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4598930481283423</v>
       </c>
     </row>
@@ -12816,15 +13303,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0569948186528497</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6010362694300517</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.849740932642487</v>
       </c>
     </row>
@@ -12851,15 +13338,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1469194312796209</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0900473933649288</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1374407582938388</v>
       </c>
     </row>
@@ -12886,15 +13373,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.35</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1375</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2875000000000001</v>
       </c>
     </row>
@@ -12921,15 +13408,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.172972972972973</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6216216216216217</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6216216216216217</v>
       </c>
     </row>
@@ -12956,15 +13443,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5165876777251184</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3222748815165877</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4218009478672986</v>
       </c>
     </row>
@@ -12991,15 +13478,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.46</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1866666666666668</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3866666666666667</v>
       </c>
     </row>
@@ -13026,15 +13513,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7741935483870968</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2956989247311828</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5376344086021505</v>
       </c>
     </row>
@@ -13061,15 +13548,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1953488372093024</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.172093023255814</v>
       </c>
     </row>
@@ -13096,15 +13583,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2484848484848485</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4727272727272727</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9393939393939394</v>
       </c>
     </row>
@@ -13131,15 +13618,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0481927710843373</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2710843373493976</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2228915662650603</v>
       </c>
     </row>
@@ -13166,15 +13653,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1627906976744187</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1627906976744187</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2232558139534884</v>
       </c>
     </row>
@@ -13201,15 +13688,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7797619047619047</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7440476190476191</v>
       </c>
     </row>
@@ -13236,15 +13723,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7115384615384615</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9423076923076923</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8012820512820513</v>
       </c>
     </row>
@@ -13271,15 +13758,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.344186046511628</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4232558139534883</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5488372093023255</v>
       </c>
     </row>
@@ -13306,15 +13793,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.086021505376344</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3602150537634408</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13341,15 +13828,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4294478527607362</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2699386503067485</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3128834355828221</v>
       </c>
     </row>
@@ -13376,15 +13863,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2487046632124352</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3056994818652849</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1088082901554404</v>
       </c>
     </row>
@@ -13411,15 +13898,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6220095693779903</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6220095693779903</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2344497607655502</v>
       </c>
     </row>
@@ -13446,15 +13933,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2797619047619047</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0297619047619047</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -13481,15 +13968,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0229007633587786</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5954198473282444</v>
       </c>
     </row>
@@ -13516,15 +14003,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8238993710691824</v>
       </c>
     </row>
@@ -13551,15 +14038,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2292682926829268</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0536585365853659</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0536585365853659</v>
       </c>
     </row>
@@ -13586,15 +14073,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.03125</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2734375</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7890625</v>
       </c>
     </row>
@@ -13621,15 +14108,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3131868131868132</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3131868131868132</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4890109890109891</v>
       </c>
     </row>
@@ -13656,15 +14143,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3024390243902439</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3853658536585365</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7073170731707317</v>
       </c>
     </row>
@@ -13691,15 +14178,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3309352517985611</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7625899280575539</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7625899280575539</v>
       </c>
     </row>
@@ -13726,15 +14213,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.21</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2050000000000001</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.83</v>
       </c>
     </row>
@@ -13761,15 +14248,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1632653061224489</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6836734693877551</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3826530612244898</v>
       </c>
     </row>
@@ -13796,15 +14283,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0571428571428572</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8742857142857143</v>
       </c>
     </row>
@@ -13831,15 +14318,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9481481481481482</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.1703703703703705</v>
       </c>
     </row>
@@ -13866,15 +14353,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0179640718562875</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2095808383233533</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6407185628742516</v>
       </c>
     </row>
@@ -13901,15 +14388,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1320754716981132</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0628930817610063</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1320754716981132</v>
       </c>
     </row>
@@ -13936,15 +14423,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3271028037383177</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3037383177570094</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1261682242990654</v>
       </c>
     </row>
@@ -13971,15 +14458,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0170454545454546</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.9602272727272727</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.1590909090909092</v>
       </c>
     </row>
@@ -14006,15 +14493,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3376623376623376</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.051948051948052</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.051948051948052</v>
       </c>
     </row>
@@ -14041,15 +14528,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2717391304347827</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2336956521739131</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8043478260869565</v>
       </c>
     </row>
@@ -14076,15 +14563,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4679802955665024</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4876847290640394</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4433497536945812</v>
       </c>
     </row>
@@ -14111,15 +14598,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.904040404040404</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1919191919191918</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2272727272727273</v>
       </c>
     </row>
@@ -14146,15 +14633,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7348484848484849</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7348484848484849</v>
       </c>
     </row>
@@ -14181,15 +14668,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.776470588235294</v>
       </c>
     </row>
@@ -14216,15 +14703,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2086956521739129</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2086956521739129</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2956521739130435</v>
       </c>
     </row>
@@ -14251,15 +14738,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7886178861788617</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0162601626016259</v>
       </c>
     </row>
@@ -14286,15 +14773,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2653061224489797</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4557823129251701</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0136054421768708</v>
       </c>
     </row>
@@ -14321,15 +14808,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5820895522388059</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2537313432835822</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4029850746268657</v>
       </c>
     </row>
@@ -14356,15 +14843,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3150684931506849</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8150684931506849</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8082191780821917</v>
       </c>
     </row>
@@ -14391,15 +14878,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3757575757575757</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2</v>
       </c>
     </row>
@@ -14426,15 +14913,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5223880597014925</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6194029850746268</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0149253731343282</v>
       </c>
     </row>
@@ -14461,15 +14948,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3352601156069364</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.23121387283237</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3930635838150289</v>
       </c>
     </row>
@@ -14496,15 +14983,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.125</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2202380952380953</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2202380952380953</v>
       </c>
     </row>
@@ -14531,15 +15018,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0640000000000001</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.968</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.968</v>
       </c>
     </row>
@@ -14566,15 +15053,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5595854922279793</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5492227979274611</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5233160621761659</v>
       </c>
     </row>
@@ -14601,15 +15088,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4689265536723164</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4689265536723164</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4689265536723164</v>
       </c>
     </row>
@@ -14636,15 +15123,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1648351648351649</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6538461538461537</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6538461538461537</v>
       </c>
     </row>
@@ -14671,15 +15158,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5470588235294118</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.588235294117647</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7705882352941176</v>
       </c>
     </row>
@@ -14706,15 +15193,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4778761061946903</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.168141592920354</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.9026548672566372</v>
       </c>
     </row>
@@ -14741,15 +15228,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1933701657458564</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3093922651933703</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3093922651933703</v>
       </c>
     </row>
@@ -14776,15 +15263,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0294117647058822</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6529411764705881</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7294117647058824</v>
       </c>
     </row>
@@ -14811,15 +15298,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.201834862385321</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J450" si="22">E387/C387</f>
         <v>1.3027522935779816</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.4954128440366972</v>
       </c>
     </row>
@@ -14846,15 +15333,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1846153846153846</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1846153846153846</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3128205128205128</v>
       </c>
     </row>
@@ -14881,15 +15368,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.0392156862745097</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6470588235294117</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6470588235294117</v>
       </c>
     </row>
@@ -14916,15 +15403,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4226190476190477</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2916666666666667</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3809523809523809</v>
       </c>
     </row>
@@ -14951,15 +15438,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5267175572519085</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7709923664122138</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7709923664122138</v>
       </c>
     </row>
@@ -14986,15 +15473,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2307692307692308</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4692307692307693</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4692307692307693</v>
       </c>
     </row>
@@ -15021,15 +15508,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2418300653594772</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2875816993464053</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.392156862745098</v>
       </c>
     </row>
@@ -15056,15 +15543,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2388059701492538</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8880597014925373</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1417910447761193</v>
       </c>
     </row>
@@ -15091,15 +15578,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2484076433121019</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.713375796178344</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9044585987261147</v>
       </c>
     </row>
@@ -15126,15 +15613,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5887445887445888</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4112554112554112</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3549783549783549</v>
       </c>
     </row>
@@ -15161,15 +15648,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2925531914893618</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4521276595744681</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5904255319148937</v>
       </c>
     </row>
@@ -15196,15 +15683,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3352272727272727</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5909090909090908</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4772727272727273</v>
       </c>
     </row>
@@ -15231,15 +15718,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5621301775147929</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.2071005917159763</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2307692307692308</v>
       </c>
     </row>
@@ -15266,15 +15753,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1419753086419753</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4197530864197532</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6604938271604939</v>
       </c>
     </row>
@@ -15301,15 +15788,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0588235294117647</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4615384615384615</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5384615384615385</v>
       </c>
     </row>
@@ -15336,15 +15823,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2737430167597765</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6089385474860336</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6089385474860336</v>
       </c>
     </row>
@@ -15371,15 +15858,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2158273381294964</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5755395683453237</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1582733812949639</v>
       </c>
     </row>
@@ -15406,15 +15893,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1452513966480447</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8435754189944134</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8435754189944134</v>
       </c>
     </row>
@@ -15441,15 +15928,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6457142857142857</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0571428571428569</v>
       </c>
     </row>
@@ -15476,15 +15963,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2108433734939759</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8734939759036144</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8734939759036144</v>
       </c>
     </row>
@@ -15511,15 +15998,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1125</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7250000000000001</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7250000000000001</v>
       </c>
     </row>
@@ -15546,15 +16033,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8080808080808082</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7323232323232323</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5353535353535352</v>
       </c>
     </row>
@@ -15581,15 +16068,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.154320987654321</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5864197530864197</v>
       </c>
     </row>
@@ -15616,15 +16103,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1179775280898876</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6797752808988764</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6797752808988764</v>
       </c>
     </row>
@@ -15651,15 +16138,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8413793103448275</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7517241379310344</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7517241379310344</v>
       </c>
     </row>
@@ -15686,15 +16173,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3374233128834356</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5030674846625767</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7116564417177915</v>
       </c>
     </row>
@@ -15721,15 +16208,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0120481927710843</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8132530120481927</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8132530120481927</v>
       </c>
     </row>
@@ -15756,15 +16243,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.308457711442786</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4129353233830846</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4975124378109452</v>
       </c>
     </row>
@@ -15791,15 +16278,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3037037037037038</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6518518518518519</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9037037037037037</v>
       </c>
     </row>
@@ -15826,15 +16313,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2008733624454149</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.537117903930131</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7117903930131004</v>
       </c>
     </row>
@@ -15861,15 +16348,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1276595744680851</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4361702127659575</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3776595744680851</v>
       </c>
     </row>
@@ -15896,15 +16383,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1676646706586826</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1676646706586826</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1676646706586826</v>
       </c>
     </row>
@@ -15931,15 +16418,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2830188679245282</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0660377358490565</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2075471698113209</v>
       </c>
     </row>
@@ -15966,15 +16453,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2317073170731707</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9329268292682926</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4451219512195121</v>
       </c>
     </row>
@@ -16001,15 +16488,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.404109589041096</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2328767123287672</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4589041095890412</v>
       </c>
     </row>
@@ -16036,15 +16523,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0292397660818713</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.631578947368421</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.631578947368421</v>
       </c>
     </row>
@@ -16071,15 +16558,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2312925170068028</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8843537414965987</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8843537414965987</v>
       </c>
     </row>
@@ -16106,15 +16593,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4269005847953216</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2046783625730995</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7719298245614035</v>
       </c>
     </row>
@@ -16141,15 +16628,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1729323308270676</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.007518796992481</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.007518796992481</v>
       </c>
     </row>
@@ -16176,15 +16663,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3803680981595092</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.147239263803681</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7914110429447854</v>
       </c>
     </row>
@@ -16211,15 +16698,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1463414634146341</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6829268292682926</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2601626016260163</v>
       </c>
     </row>
@@ -16246,15 +16733,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.0451612903225804</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4387096774193548</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5870967741935484</v>
       </c>
     </row>
@@ -16281,15 +16768,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.82010582010582</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5767195767195767</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1481481481481484</v>
       </c>
     </row>
@@ -16316,15 +16803,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6214689265536724</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.344632768361582</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.423728813559322</v>
       </c>
     </row>
@@ -16351,15 +16838,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2754491017964071</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6407185628742516</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5748502994011977</v>
       </c>
     </row>
@@ -16386,15 +16873,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2231404958677685</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.71900826446281</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.71900826446281</v>
       </c>
     </row>
@@ -16421,15 +16908,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0904255319148937</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5585106382978724</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8989361702127661</v>
       </c>
     </row>
@@ -16456,15 +16943,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1145038167938932</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.633587786259542</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5877862595419847</v>
       </c>
     </row>
@@ -16491,15 +16978,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1294964028776979</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6330935251798562</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9568345323741008</v>
       </c>
     </row>
@@ -16526,15 +17013,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.2338709677419355</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.056451612903226</v>
       </c>
     </row>
@@ -16561,15 +17048,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4801980198019802</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3762376237623761</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1831683168316831</v>
       </c>
     </row>
@@ -16596,15 +17083,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.25</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4767441860465116</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1162790697674418</v>
       </c>
     </row>
@@ -16631,15 +17118,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2867132867132867</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2867132867132867</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2867132867132867</v>
       </c>
     </row>
@@ -16666,15 +17153,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3493975903614457</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7530120481927711</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7048192771084338</v>
       </c>
     </row>
@@ -16701,15 +17188,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1036269430051813</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5492227979274611</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4611398963730571</v>
       </c>
     </row>
@@ -16736,15 +17223,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.196969696969697</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4747474747474747</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2575757575757576</v>
       </c>
     </row>
@@ -16771,15 +17258,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3247863247863247</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.641025641025641</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6239316239316239</v>
       </c>
     </row>
@@ -16806,15 +17293,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.274390243902439</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2804878048780488</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3841463414634145</v>
       </c>
     </row>
@@ -16841,15 +17328,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1595744680851063</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.425531914893617</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6170212765957446</v>
       </c>
     </row>
@@ -16876,15 +17363,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1391304347826088</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.4869565217391303</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7739130434782608</v>
       </c>
     </row>
@@ -16911,15 +17398,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7696335078534031</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7696335078534031</v>
       </c>
     </row>
@@ -16946,15 +17433,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3526315789473684</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2315789473684211</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7052631578947368</v>
       </c>
     </row>
@@ -16981,15 +17468,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0778443113772456</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5089820359281436</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4251497005988023</v>
       </c>
     </row>
@@ -17016,15 +17503,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4567901234567902</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6728395061728396</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8271604938271604</v>
       </c>
     </row>
@@ -17051,15 +17538,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.3166666666666667</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451" si="22">E451/C451</f>
+        <f t="shared" ref="J451" si="25">E451/C451</f>
         <v>1.6277777777777778</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="23">F451/C451</f>
+        <f t="shared" ref="K451" si="26">F451/C451</f>
         <v>1.7222222222222223</v>
       </c>
     </row>
